--- a/biology/Biologie cellulaire et moléculaire/Peroxysome/Peroxysome.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Peroxysome/Peroxysome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un peroxysome est un organite cellulaire entouré par une  membrane trilamellaire et ne contenant pas de matériel génétique ni de ribosomes. Contrairement à la mitochondrie ou au chloroplaste, toutes les protéines qui le constituent sont codées par des gènes nucléaires et proviennent du cytosol (ou du réticulum endoplasmique rugueux pour une minorité de protéines transmembranaires). Le peroxysome a été découvert en 1965 par Christian de Duve grâce à l'utilisation du microscope électronique et au perfectionnement des méthodes de fractionnement cellulaire .
 Les peroxysomes sont impliqués dans la métabolisation des acides gras et des acides aminés, la réduction de dérivés réactifs de l'oxygène et la synthèse des plasmalogènes.
@@ -513,7 +525,9 @@
           <t>Méthodes d'étude</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut procéder par éclatement et centrifugation, ce qui va séparer les organites en fonction de leur densité.
 La détection cytochimique est également utilisée, notamment dans l'étude de la catalase. Ainsi, on détecte la catalase, ou l'urate oxydase , en mettant le peroxysome au contact des substrats de ces protéines. Grâce à l'immunomarquage aux billes d'or, on remarque que la catalase est présente dans tout le peroxysome , tandis que l'urate oxydase est spécifique à la zone para-cristalline nucléoïde.
@@ -546,7 +560,9 @@
           <t>Structures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des organites sphériques de 0,1 à 1 µm (on parle de microperoxysomes ou microbodies) jusqu'à 1 µm de diamètre chez les animaux, mais ils peuvent atteindre 1,7 µm chez les plantes.
 Ils sont principalement composés de vésicules reliées par des canalicules, le tout composant la matrice, ou lumière du peroxysome, riche en protéines.
@@ -581,14 +597,16 @@
           <t>Protéines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les protéines nécessaires aux peroxysomes sont synthétisées en dehors de ces derniers, dans le cytosol.
 On trouve dans la membrane des protéines (non-glycosylées) qui ont notamment la fonction d'importer les enzymes nécessaires au fonctionnement du peroxysome.
-D'une part, les peroxines, responsables du système d'import des protéines. Elles sont codées par les gènes PEX[1].
+D'une part, les peroxines, responsables du système d'import des protéines. Elles sont codées par les gènes PEX.
 Les signaux d'adressages reconnus par les peroxines sont PTS 1 et 2, respectivement situés du côté C et N terminal.
 Les transporteurs ABC , qui utilisent l'ATP, sont responsables du transport (import et export) des métabolites sont présents dans la membrane.
-Un Cytochrome P450 est également spécifique du Peroxysome[2].
+Un Cytochrome P450 est également spécifique du Peroxysome.
 </t>
         </is>
       </c>
@@ -617,7 +635,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Comme les mitochondries, les peroxysomes sont des sites essentiels pour l'utilisation du dioxygène O2 (réactions d'oxydation) :
 les enzymes oxydases (D-amino-acide-oxydase, urate-oxydase) enlèvent des atomes d'hydrogène libres (réaction d'oxydation) à des substrats organiques spécifique R. Ces substrats liés à des atomes d'hydrogène, sont potentiellement toxiques pour la cellule. L'oxydation de ces molécules les détoxifie. RH2 + O2 → R + H2O2 ;
@@ -654,12 +674,14 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il semble que ces organites naissent à partir d'un phénomène de scission binaire des peroxysomes parentaux. Mais il a été remarqué récemment que chez des individus malades ne possédant plus de peroxysomes la rectification de l'origine génomique de la maladie a permis l'apparition de nouveaux peroxysomes. Il y a donc une synthèse de peroxysomes à partir du réticulum endoplasmique lisse appelés peroxysomes précoces[réf. nécessaire].
-Il y a des cycles automatiques de fusion et de fission des peroxysomes. Ces cycles impliquent la DRP ( Dynamin-related protein), elle provoque une constriction de la membrane. En réponse à certaines situations métaboliques, il y a une multiplication des peroxysomes[3]
+Il y a des cycles automatiques de fusion et de fission des peroxysomes. Ces cycles impliquent la DRP ( Dynamin-related protein), elle provoque une constriction de la membrane. En réponse à certaines situations métaboliques, il y a une multiplication des peroxysomes
 Les lipides nécessaires à la fabrication de nouvelles membranes peroxysomiales sont également importés du cytosol.
-Selon une hypothèse ancienne, les peroxysomes proviendraient de l'endosymbiose d'un procaryote. Le compartiment aurait permis, avant les mitochondries, de réduire le niveau d'O2 (qui est toxique) dans la cellule. Cette hypothèse a vraisemblablement été infirmée par les résultats récents, qui suggèrent plutôt que le peroxysome serait issu du réticulum endoplasmique[4].
+Selon une hypothèse ancienne, les peroxysomes proviendraient de l'endosymbiose d'un procaryote. Le compartiment aurait permis, avant les mitochondries, de réduire le niveau d'O2 (qui est toxique) dans la cellule. Cette hypothèse a vraisemblablement été infirmée par les résultats récents, qui suggèrent plutôt que le peroxysome serait issu du réticulum endoplasmique.
 </t>
         </is>
       </c>
@@ -688,7 +710,9 @@
           <t>Maladies peroxysomales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
